--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_MIS_AgencyProfile_AddNewProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_MIS_AgencyProfile_AddNewProfile.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8312A3B5-A4AC-410D-AF98-83F2A973505C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A417630-355A-4D2E-8505-7B705813D042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{028E05FB-8546-4956-9092-7967216C1B9D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{028E05FB-8546-4956-9092-7967216C1B9D}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -232,9 +232,6 @@
     <t>link_AgencyProfile_wait</t>
   </si>
   <si>
-    <t xml:space="preserve"> 11 - TEST11 </t>
-  </si>
-  <si>
     <t>checkAccessibility</t>
   </si>
   <si>
@@ -245,6 +242,9 @@
   </si>
   <si>
     <t>AddNewProfile_AgencyProfile</t>
+  </si>
+  <si>
+    <t>03</t>
   </si>
 </sst>
 </file>
@@ -672,7 +672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63821BDA-AAAA-4974-9A05-DF5FB56D766C}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -722,10 +722,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -734,10 +734,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
@@ -1069,21 +1069,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{021B6EF0-90FF-40E9-AC8A-72CA956AA274}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.90625" customWidth="1"/>
-    <col min="4" max="12" width="11.54296875" customWidth="1"/>
-    <col min="13" max="13" width="34.26953125" customWidth="1"/>
+    <col min="2" max="2" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18" customWidth="1"/>
-    <col min="16" max="16" width="11.54296875" customWidth="1"/>
-    <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
@@ -1176,8 +1184,8 @@
       <c r="L2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>65</v>
+      <c r="M2" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>42</v>
